--- a/一6.xlsx
+++ b/一6.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nscseanz\Documents\GitHub\zhyc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2032F6D-7B80-4493-AD49-F30CB1F1F047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="95">
   <si>
     <t>秦芷蕊</t>
   </si>
@@ -296,19 +302,17 @@
   </si>
   <si>
     <t>mawanyi1995</t>
+  </si>
+  <si>
+    <t>珠海</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,353 +323,31 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="0"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -688,251 +370,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -945,61 +385,17 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1257,21 +653,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2">
         <v>46</v>
       </c>
@@ -1288,7 +684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>47</v>
       </c>
@@ -1305,7 +701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>48</v>
       </c>
@@ -1322,7 +718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>49</v>
       </c>
@@ -1339,7 +735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>50</v>
       </c>
@@ -1356,7 +752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>51</v>
       </c>
@@ -1373,7 +769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>52</v>
       </c>
@@ -1390,7 +786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>53</v>
       </c>
@@ -1407,7 +803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>54</v>
       </c>
@@ -1424,7 +820,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>55</v>
       </c>
@@ -1441,7 +837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>56</v>
       </c>
@@ -1458,7 +854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>57</v>
       </c>
@@ -1475,7 +871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>58</v>
       </c>
@@ -1492,7 +888,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>59</v>
       </c>
@@ -1509,7 +905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>60</v>
       </c>
@@ -1526,7 +922,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>61</v>
       </c>
@@ -1543,7 +939,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>62</v>
       </c>
@@ -1560,7 +956,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>63</v>
       </c>
@@ -1577,7 +973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>64</v>
       </c>
@@ -1594,7 +990,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>65</v>
       </c>
@@ -1611,7 +1007,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>66</v>
       </c>
@@ -1628,7 +1024,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>67</v>
       </c>
@@ -1645,7 +1041,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>68</v>
       </c>
@@ -1662,7 +1058,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>69</v>
       </c>
@@ -1679,7 +1075,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>70</v>
       </c>
@@ -1696,7 +1092,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>71</v>
       </c>
@@ -1713,7 +1109,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>72</v>
       </c>
@@ -1730,7 +1126,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>73</v>
       </c>
@@ -1747,7 +1143,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>74</v>
       </c>
@@ -1764,7 +1160,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>75</v>
       </c>
@@ -1781,7 +1177,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>76</v>
       </c>
@@ -1798,7 +1194,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>77</v>
       </c>
@@ -1815,7 +1211,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>78</v>
       </c>
@@ -1832,7 +1228,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="34" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>79</v>
       </c>
@@ -1849,7 +1245,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>80</v>
       </c>
@@ -1866,7 +1262,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>81</v>
       </c>
@@ -1883,7 +1279,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="37" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>82</v>
       </c>
@@ -1900,7 +1296,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="38" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>83</v>
       </c>
@@ -1917,7 +1313,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>84</v>
       </c>
@@ -1934,7 +1330,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="40" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>85</v>
       </c>
@@ -1951,7 +1347,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="41" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>86</v>
       </c>
@@ -1968,7 +1364,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="42" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>87</v>
       </c>
@@ -1985,7 +1381,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="43" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>88</v>
       </c>
@@ -2002,7 +1398,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>89</v>
       </c>
@@ -2019,7 +1415,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="45" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>90</v>
       </c>
@@ -2036,7 +1432,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="17.5" customHeight="1" spans="1:5">
+    <row r="46" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>91</v>
       </c>
@@ -2053,8 +1449,25 @@
         <v>93</v>
       </c>
     </row>
+    <row r="47" spans="1:5" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="A47" s="2">
+        <v>92</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2">
+        <v>11111</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>